--- a/public/data/HA_Requirements.xlsx
+++ b/public/data/HA_Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achen1076/Desktop/3606/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35759EA8-2EFD-244B-B978-C797B90EB414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77EE659-30BB-4F47-9E3B-8BB5DEF920ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="3340" windowWidth="27800" windowHeight="16540" xr2:uid="{0AE43442-FBD5-4BC2-9A5E-363A1CF60107}"/>
   </bookViews>
@@ -438,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,13 +448,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -463,38 +466,16 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFADD8E6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -518,19 +499,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -617,6 +585,41 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFADD8E6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -631,15 +634,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98A99C95-23E7-1F40-BB44-5C303B1E28B7}" name="Table1" displayName="Table1" ref="A1:I91" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:I91" xr:uid="{98A99C95-23E7-1F40-BB44-5C303B1E28B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98A99C95-23E7-1F40-BB44-5C303B1E28B7}" name="Table1" displayName="Table1" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:I1048576" xr:uid="{98A99C95-23E7-1F40-BB44-5C303B1E28B7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I91">
     <sortCondition descending="1" ref="E1:E91"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F571EAD8-7EB6-6F47-A405-E6A82C65933D}" name="Governor Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{44BEF503-1C5D-9D4E-8491-AD2D0AF13756}" name="Governor ID" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{90CCB17F-A489-1B43-9852-C9539AD1AAAC}" name="Power" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{F571EAD8-7EB6-6F47-A405-E6A82C65933D}" name="Governor Name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{44BEF503-1C5D-9D4E-8491-AD2D0AF13756}" name="Governor ID" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{90CCB17F-A489-1B43-9852-C9539AD1AAAC}" name="Power" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{9E3DEF73-C1D4-014A-B9A4-A9B3F22305AB}" name="Deads" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{C9DA9F6D-F2ED-D84C-9331-13949D8959DB}" name="Kill Points" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{1F993F9E-E88E-E54A-9305-69A6DD2C67B1}" name="T4 Kills" dataDxfId="4"/>
@@ -968,49 +971,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF9B62E-BC03-4916-8908-1A37940E32E0}">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1021,8 +1025,8 @@
       <c r="B2">
         <v>32090653</v>
       </c>
-      <c r="C2">
-        <v>201067505</v>
+      <c r="C2" s="2">
+        <v>200790056</v>
       </c>
       <c r="D2">
         <v>102021422</v>
@@ -1039,7 +1043,7 @@
       <c r="H2" s="4">
         <v>2000000</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>1750000000</v>
       </c>
       <c r="M2" s="4"/>
@@ -1051,8 +1055,8 @@
       <c r="B3">
         <v>15923779</v>
       </c>
-      <c r="C3">
-        <v>126969952</v>
+      <c r="C3" s="2">
+        <v>125720026</v>
       </c>
       <c r="D3">
         <v>54889135</v>
@@ -1069,7 +1073,7 @@
       <c r="H3" s="4">
         <v>1200000</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>750000000</v>
       </c>
       <c r="M3" s="4"/>
@@ -1081,8 +1085,8 @@
       <c r="B4">
         <v>8849165</v>
       </c>
-      <c r="C4">
-        <v>173019287</v>
+      <c r="C4" s="2">
+        <v>172057743</v>
       </c>
       <c r="D4">
         <v>73418620</v>
@@ -1099,7 +1103,7 @@
       <c r="H4" s="4">
         <v>1650000</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>1275000000</v>
       </c>
       <c r="M4" s="4"/>
@@ -1111,8 +1115,8 @@
       <c r="B5">
         <v>3296865</v>
       </c>
-      <c r="C5">
-        <v>134626973</v>
+      <c r="C5" s="2">
+        <v>94171608</v>
       </c>
       <c r="D5">
         <v>38017946</v>
@@ -1129,7 +1133,7 @@
       <c r="H5" s="4">
         <v>900000</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>675000000</v>
       </c>
       <c r="M5" s="4"/>
@@ -1141,8 +1145,8 @@
       <c r="B6">
         <v>24406548</v>
       </c>
-      <c r="C6">
-        <v>101355099</v>
+      <c r="C6" s="2">
+        <v>101352291</v>
       </c>
       <c r="D6">
         <v>51432334</v>
@@ -1159,7 +1163,7 @@
       <c r="H6" s="4">
         <v>1000000</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>750000000</v>
       </c>
       <c r="M6" s="4"/>
@@ -1171,8 +1175,8 @@
       <c r="B7">
         <v>28039237</v>
       </c>
-      <c r="C7">
-        <v>99591701</v>
+      <c r="C7" s="2">
+        <v>99589741</v>
       </c>
       <c r="D7">
         <v>41247886</v>
@@ -1189,7 +1193,7 @@
       <c r="H7" s="4">
         <v>950000</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>712500000</v>
       </c>
       <c r="M7" s="4"/>
@@ -1201,8 +1205,8 @@
       <c r="B8">
         <v>35894604</v>
       </c>
-      <c r="C8">
-        <v>94278685</v>
+      <c r="C8" s="2">
+        <v>94475025</v>
       </c>
       <c r="D8">
         <v>37119038</v>
@@ -1219,7 +1223,7 @@
       <c r="H8" s="4">
         <v>900000</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>675000000</v>
       </c>
       <c r="M8" s="4"/>
@@ -1231,8 +1235,8 @@
       <c r="B9">
         <v>75096297</v>
       </c>
-      <c r="C9">
-        <v>143607868</v>
+      <c r="C9" s="2">
+        <v>143445554</v>
       </c>
       <c r="D9">
         <v>32449568</v>
@@ -1249,7 +1253,7 @@
       <c r="H9" s="4">
         <v>1350000</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>1050000000</v>
       </c>
       <c r="M9" s="4"/>
@@ -1261,8 +1265,8 @@
       <c r="B10">
         <v>14881438</v>
       </c>
-      <c r="C10">
-        <v>90033288</v>
+      <c r="C10" s="2">
+        <v>89735588</v>
       </c>
       <c r="D10">
         <v>44465500</v>
@@ -1279,7 +1283,7 @@
       <c r="H10" s="4">
         <v>850000</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>637500000</v>
       </c>
       <c r="M10" s="4"/>
@@ -1291,8 +1295,8 @@
       <c r="B11">
         <v>8856833</v>
       </c>
-      <c r="C11">
-        <v>121503835</v>
+      <c r="C11" s="2">
+        <v>91863185</v>
       </c>
       <c r="D11">
         <v>52713304</v>
@@ -1309,7 +1313,7 @@
       <c r="H11" s="4">
         <v>900000</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>675000000</v>
       </c>
       <c r="M11" s="4"/>
@@ -1321,8 +1325,8 @@
       <c r="B12">
         <v>27509309</v>
       </c>
-      <c r="C12">
-        <v>112304928</v>
+      <c r="C12" s="2">
+        <v>112267246</v>
       </c>
       <c r="D12">
         <v>35448975</v>
@@ -1339,7 +1343,7 @@
       <c r="H12" s="4">
         <v>1100000</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>825000000</v>
       </c>
       <c r="M12" s="4"/>
@@ -1351,7 +1355,7 @@
       <c r="B13">
         <v>70688610</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>98261298</v>
       </c>
       <c r="D13">
@@ -1369,7 +1373,7 @@
       <c r="H13" s="4">
         <v>950000</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>712500000</v>
       </c>
       <c r="M13" s="4"/>
@@ -1381,8 +1385,8 @@
       <c r="B14">
         <v>73520937</v>
       </c>
-      <c r="C14">
-        <v>103148782</v>
+      <c r="C14" s="2">
+        <v>103000862</v>
       </c>
       <c r="D14">
         <v>27050376</v>
@@ -1399,7 +1403,7 @@
       <c r="H14" s="4">
         <v>1000000</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>750000000</v>
       </c>
       <c r="M14" s="4"/>
@@ -1411,8 +1415,8 @@
       <c r="B15">
         <v>74340860</v>
       </c>
-      <c r="C15">
-        <v>105151127</v>
+      <c r="C15" s="2">
+        <v>107150841</v>
       </c>
       <c r="D15">
         <v>28204795</v>
@@ -1429,7 +1433,7 @@
       <c r="H15" s="4">
         <v>1050000</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>787500000</v>
       </c>
       <c r="M15" s="4"/>
@@ -1441,8 +1445,8 @@
       <c r="B16">
         <v>21160058</v>
       </c>
-      <c r="C16">
-        <v>94312448</v>
+      <c r="C16" s="2">
+        <v>93838558</v>
       </c>
       <c r="D16">
         <v>37055625</v>
@@ -1459,7 +1463,7 @@
       <c r="H16" s="4">
         <v>900000</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>675000000</v>
       </c>
       <c r="M16" s="4"/>
@@ -1471,8 +1475,8 @@
       <c r="B17">
         <v>39090448</v>
       </c>
-      <c r="C17">
-        <v>104167099</v>
+      <c r="C17" s="2">
+        <v>104168391</v>
       </c>
       <c r="D17">
         <v>53310429</v>
@@ -1489,7 +1493,7 @@
       <c r="H17" s="4">
         <v>1000000</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>750000000</v>
       </c>
       <c r="M17" s="4"/>
@@ -1501,7 +1505,7 @@
       <c r="B18">
         <v>80525087</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>93621619</v>
       </c>
       <c r="D18">
@@ -1519,7 +1523,7 @@
       <c r="H18" s="4">
         <v>900000</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>675000000</v>
       </c>
       <c r="M18" s="4"/>
@@ -1531,8 +1535,8 @@
       <c r="B19">
         <v>71796687</v>
       </c>
-      <c r="C19">
-        <v>81827304</v>
+      <c r="C19" s="2">
+        <v>78403194</v>
       </c>
       <c r="D19">
         <v>28861563</v>
@@ -1549,7 +1553,7 @@
       <c r="H19" s="4">
         <v>750000</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>562500000</v>
       </c>
       <c r="M19" s="4"/>
@@ -1561,8 +1565,8 @@
       <c r="B20">
         <v>78938282</v>
       </c>
-      <c r="C20">
-        <v>78192979</v>
+      <c r="C20" s="2">
+        <v>75933755</v>
       </c>
       <c r="D20">
         <v>31726400</v>
@@ -1579,7 +1583,7 @@
       <c r="H20" s="4">
         <v>750000</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>562500000</v>
       </c>
       <c r="M20" s="4"/>
@@ -1591,8 +1595,8 @@
       <c r="B21">
         <v>9545014</v>
       </c>
-      <c r="C21">
-        <v>103857588</v>
+      <c r="C21" s="2">
+        <v>104650498</v>
       </c>
       <c r="D21">
         <v>33270174</v>
@@ -1609,7 +1613,7 @@
       <c r="H21" s="4">
         <v>1000000</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>750000000</v>
       </c>
       <c r="M21" s="4"/>
@@ -1621,8 +1625,8 @@
       <c r="B22">
         <v>68803008</v>
       </c>
-      <c r="C22">
-        <v>122001097</v>
+      <c r="C22" s="2">
+        <v>95614753</v>
       </c>
       <c r="D22">
         <v>42262154</v>
@@ -1639,7 +1643,7 @@
       <c r="H22" s="4">
         <v>950000</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>712500000</v>
       </c>
       <c r="M22" s="4"/>
@@ -1651,8 +1655,8 @@
       <c r="B23">
         <v>125326841</v>
       </c>
-      <c r="C23">
-        <v>83657748</v>
+      <c r="C23" s="2">
+        <v>83428920</v>
       </c>
       <c r="D23">
         <v>15155098</v>
@@ -1669,7 +1673,7 @@
       <c r="H23" s="4">
         <v>800000</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>600000000</v>
       </c>
       <c r="M23" s="4"/>
@@ -1681,8 +1685,8 @@
       <c r="B24">
         <v>138952918</v>
       </c>
-      <c r="C24">
-        <v>92310300</v>
+      <c r="C24" s="2">
+        <v>92363100</v>
       </c>
       <c r="D24">
         <v>15269430</v>
@@ -1699,7 +1703,7 @@
       <c r="H24" s="4">
         <v>900000</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>675000000</v>
       </c>
       <c r="M24" s="4"/>
@@ -1711,8 +1715,8 @@
       <c r="B25">
         <v>147829747</v>
       </c>
-      <c r="C25">
-        <v>88630430</v>
+      <c r="C25" s="2">
+        <v>88435784</v>
       </c>
       <c r="D25">
         <v>10278299</v>
@@ -1729,7 +1733,7 @@
       <c r="H25" s="4">
         <v>850000</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>637500000</v>
       </c>
       <c r="M25" s="4"/>
@@ -1741,8 +1745,8 @@
       <c r="B26">
         <v>113338372</v>
       </c>
-      <c r="C26">
-        <v>97741657</v>
+      <c r="C26" s="2">
+        <v>97444237</v>
       </c>
       <c r="D26">
         <v>19953865</v>
@@ -1759,7 +1763,7 @@
       <c r="H26" s="4">
         <v>950000</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>712500000</v>
       </c>
       <c r="M26" s="4"/>
@@ -1771,8 +1775,8 @@
       <c r="B27">
         <v>77929499</v>
       </c>
-      <c r="C27">
-        <v>81114254</v>
+      <c r="C27" s="2">
+        <v>80389008</v>
       </c>
       <c r="D27">
         <v>29629005</v>
@@ -1789,7 +1793,7 @@
       <c r="H27" s="4">
         <v>800000</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>600000000</v>
       </c>
       <c r="M27" s="4"/>
@@ -1801,8 +1805,8 @@
       <c r="B28">
         <v>98351074</v>
       </c>
-      <c r="C28">
-        <v>124623547</v>
+      <c r="C28" s="2">
+        <v>120585840</v>
       </c>
       <c r="D28">
         <v>36928516</v>
@@ -1819,7 +1823,7 @@
       <c r="H28" s="4">
         <v>1150000</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>900000000</v>
       </c>
       <c r="M28" s="4"/>
@@ -1831,8 +1835,8 @@
       <c r="B29">
         <v>121127769</v>
       </c>
-      <c r="C29">
-        <v>99998406</v>
+      <c r="C29" s="2">
+        <v>99760966</v>
       </c>
       <c r="D29">
         <v>20213359</v>
@@ -1849,7 +1853,7 @@
       <c r="H29" s="4">
         <v>950000</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>712500000</v>
       </c>
       <c r="M29" s="4"/>
@@ -1861,8 +1865,8 @@
       <c r="B30">
         <v>131184443</v>
       </c>
-      <c r="C30">
-        <v>81418898</v>
+      <c r="C30" s="2">
+        <v>81845651</v>
       </c>
       <c r="D30">
         <v>21905781</v>
@@ -1879,7 +1883,7 @@
       <c r="H30" s="4">
         <v>800000</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>600000000</v>
       </c>
       <c r="M30" s="4"/>
@@ -1891,8 +1895,8 @@
       <c r="B31">
         <v>161499721</v>
       </c>
-      <c r="C31">
-        <v>82173542</v>
+      <c r="C31" s="2">
+        <v>81982552</v>
       </c>
       <c r="D31">
         <v>8240925</v>
@@ -1909,7 +1913,7 @@
       <c r="H31" s="4">
         <v>800000</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>600000000</v>
       </c>
       <c r="M31" s="4"/>
@@ -1921,8 +1925,8 @@
       <c r="B32">
         <v>63946747</v>
       </c>
-      <c r="C32">
-        <v>87567621</v>
+      <c r="C32" s="2">
+        <v>87475821</v>
       </c>
       <c r="D32">
         <v>20141817</v>
@@ -1939,7 +1943,7 @@
       <c r="H32" s="4">
         <v>850000</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>637500000</v>
       </c>
       <c r="M32" s="4"/>
@@ -1951,8 +1955,8 @@
       <c r="B33">
         <v>44967924</v>
       </c>
-      <c r="C33">
-        <v>100080613</v>
+      <c r="C33" s="2">
+        <v>99054593</v>
       </c>
       <c r="D33">
         <v>22384243</v>
@@ -1969,7 +1973,7 @@
       <c r="H33" s="4">
         <v>950000</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>712500000</v>
       </c>
       <c r="M33" s="4"/>
@@ -1981,8 +1985,8 @@
       <c r="B34">
         <v>115932574</v>
       </c>
-      <c r="C34">
-        <v>99500492</v>
+      <c r="C34" s="2">
+        <v>97199588</v>
       </c>
       <c r="D34">
         <v>17408340</v>
@@ -1999,7 +2003,7 @@
       <c r="H34" s="4">
         <v>950000</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>712500000</v>
       </c>
       <c r="M34" s="4"/>
@@ -2011,8 +2015,8 @@
       <c r="B35">
         <v>57351658</v>
       </c>
-      <c r="C35">
-        <v>103933975</v>
+      <c r="C35" s="2">
+        <v>103584755</v>
       </c>
       <c r="D35">
         <v>34623769</v>
@@ -2029,7 +2033,7 @@
       <c r="H35" s="4">
         <v>1000000</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>750000000</v>
       </c>
       <c r="M35" s="4"/>
@@ -2041,8 +2045,8 @@
       <c r="B36">
         <v>125052575</v>
       </c>
-      <c r="C36">
-        <v>82332152</v>
+      <c r="C36" s="2">
+        <v>82187032</v>
       </c>
       <c r="D36">
         <v>18033429</v>
@@ -2059,7 +2063,7 @@
       <c r="H36" s="4">
         <v>800000</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>600000000</v>
       </c>
       <c r="M36" s="4"/>
@@ -2071,8 +2075,8 @@
       <c r="B37">
         <v>41608562</v>
       </c>
-      <c r="C37">
-        <v>75539576</v>
+      <c r="C37" s="2">
+        <v>74209906</v>
       </c>
       <c r="D37">
         <v>24409741</v>
@@ -2089,7 +2093,7 @@
       <c r="H37" s="4">
         <v>700000</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>525000000</v>
       </c>
       <c r="M37" s="4"/>
@@ -2101,8 +2105,8 @@
       <c r="B38">
         <v>140454660</v>
       </c>
-      <c r="C38">
-        <v>84383542</v>
+      <c r="C38" s="2">
+        <v>82394128</v>
       </c>
       <c r="D38">
         <v>16121999</v>
@@ -2119,7 +2123,7 @@
       <c r="H38" s="4">
         <v>800000</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>600000000</v>
       </c>
       <c r="M38" s="4"/>
@@ -2131,8 +2135,8 @@
       <c r="B39">
         <v>69125825</v>
       </c>
-      <c r="C39">
-        <v>89068606</v>
+      <c r="C39" s="2">
+        <v>88903674</v>
       </c>
       <c r="D39">
         <v>20642492</v>
@@ -2149,7 +2153,7 @@
       <c r="H39" s="4">
         <v>850000</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>637500000</v>
       </c>
       <c r="M39" s="4"/>
@@ -2161,8 +2165,8 @@
       <c r="B40">
         <v>148086205</v>
       </c>
-      <c r="C40">
-        <v>87924002</v>
+      <c r="C40" s="2">
+        <v>87708208</v>
       </c>
       <c r="D40">
         <v>14347202</v>
@@ -2179,7 +2183,7 @@
       <c r="H40" s="4">
         <v>850000</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>637500000</v>
       </c>
       <c r="M40" s="4"/>
@@ -2191,8 +2195,8 @@
       <c r="B41">
         <v>62957514</v>
       </c>
-      <c r="C41">
-        <v>91476911</v>
+      <c r="C41" s="2">
+        <v>91273911</v>
       </c>
       <c r="D41">
         <v>16867112</v>
@@ -2209,7 +2213,7 @@
       <c r="H41" s="4">
         <v>900000</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>675000000</v>
       </c>
       <c r="M41" s="4"/>
@@ -2221,8 +2225,8 @@
       <c r="B42">
         <v>142139783</v>
       </c>
-      <c r="C42">
-        <v>87868435</v>
+      <c r="C42" s="2">
+        <v>84252255</v>
       </c>
       <c r="D42">
         <v>11381848</v>
@@ -2239,7 +2243,7 @@
       <c r="H42" s="4">
         <v>800000</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>600000000</v>
       </c>
       <c r="M42" s="4"/>
@@ -2251,8 +2255,8 @@
       <c r="B43">
         <v>134720015</v>
       </c>
-      <c r="C43">
-        <v>72503586</v>
+      <c r="C43" s="2">
+        <v>71878478</v>
       </c>
       <c r="D43">
         <v>18098139</v>
@@ -2269,7 +2273,7 @@
       <c r="H43" s="4">
         <v>700000</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>525000000</v>
       </c>
       <c r="M43" s="4"/>
@@ -2281,8 +2285,8 @@
       <c r="B44">
         <v>96421094</v>
       </c>
-      <c r="C44">
-        <v>74372097</v>
+      <c r="C44" s="2">
+        <v>75122949</v>
       </c>
       <c r="D44">
         <v>16146336</v>
@@ -2299,7 +2303,7 @@
       <c r="H44" s="4">
         <v>750000</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <v>562500000</v>
       </c>
       <c r="M44" s="4"/>
@@ -2311,8 +2315,8 @@
       <c r="B45">
         <v>123632846</v>
       </c>
-      <c r="C45">
-        <v>92037362</v>
+      <c r="C45" s="2">
+        <v>91945052</v>
       </c>
       <c r="D45">
         <v>19535083</v>
@@ -2329,7 +2333,7 @@
       <c r="H45" s="4">
         <v>900000</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <v>675000000</v>
       </c>
       <c r="M45" s="4"/>
@@ -2341,8 +2345,8 @@
       <c r="B46">
         <v>13713321</v>
       </c>
-      <c r="C46">
-        <v>78361071</v>
+      <c r="C46" s="2">
+        <v>78911327</v>
       </c>
       <c r="D46">
         <v>21703849</v>
@@ -2359,7 +2363,7 @@
       <c r="H46" s="4">
         <v>750000</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>562500000</v>
       </c>
       <c r="M46" s="4"/>
@@ -2371,8 +2375,8 @@
       <c r="B47">
         <v>163023580</v>
       </c>
-      <c r="C47">
-        <v>85572645</v>
+      <c r="C47" s="2">
+        <v>85315145</v>
       </c>
       <c r="D47">
         <v>15613180</v>
@@ -2389,7 +2393,7 @@
       <c r="H47" s="4">
         <v>850000</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="6">
         <v>637500000</v>
       </c>
       <c r="M47" s="4"/>
@@ -2401,8 +2405,8 @@
       <c r="B48">
         <v>178117762</v>
       </c>
-      <c r="C48">
-        <v>94572457</v>
+      <c r="C48" s="2">
+        <v>94308177</v>
       </c>
       <c r="D48">
         <v>8369151</v>
@@ -2419,7 +2423,7 @@
       <c r="H48" s="4">
         <v>900000</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="6">
         <v>540000000</v>
       </c>
       <c r="M48" s="4"/>
@@ -2431,8 +2435,8 @@
       <c r="B49">
         <v>127526974</v>
       </c>
-      <c r="C49">
-        <v>73236247</v>
+      <c r="C49" s="2">
+        <v>72413453</v>
       </c>
       <c r="D49">
         <v>20773487</v>
@@ -2449,7 +2453,7 @@
       <c r="H49" s="4">
         <v>700000</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="6">
         <v>525000000</v>
       </c>
       <c r="M49" s="4"/>
@@ -2461,8 +2465,8 @@
       <c r="B50">
         <v>177811681</v>
       </c>
-      <c r="C50">
-        <v>90568734</v>
+      <c r="C50" s="2">
+        <v>90325224</v>
       </c>
       <c r="D50">
         <v>5916717</v>
@@ -2479,7 +2483,7 @@
       <c r="H50" s="4">
         <v>900000</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <v>540000000</v>
       </c>
       <c r="M50" s="4"/>
@@ -2491,8 +2495,8 @@
       <c r="B51">
         <v>167259324</v>
       </c>
-      <c r="C51">
-        <v>97006986</v>
+      <c r="C51" s="2">
+        <v>69207937</v>
       </c>
       <c r="D51">
         <v>14065386</v>
@@ -2509,7 +2513,7 @@
       <c r="H51" s="4">
         <v>650000</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="6">
         <v>487500000</v>
       </c>
       <c r="M51" s="4"/>
@@ -2521,8 +2525,8 @@
       <c r="B52">
         <v>178057683</v>
       </c>
-      <c r="C52">
-        <v>81631657</v>
+      <c r="C52" s="2">
+        <v>80355145</v>
       </c>
       <c r="D52">
         <v>7196590</v>
@@ -2539,7 +2543,7 @@
       <c r="H52" s="4">
         <v>800000</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="6">
         <v>480000000</v>
       </c>
       <c r="M52" s="4"/>
@@ -2551,7 +2555,7 @@
       <c r="B53">
         <v>161701270</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>78286336</v>
       </c>
       <c r="D53">
@@ -2569,7 +2573,7 @@
       <c r="H53" s="4">
         <v>750000</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="6">
         <v>562500000</v>
       </c>
       <c r="M53" s="4"/>
@@ -2581,8 +2585,8 @@
       <c r="B54">
         <v>178227176</v>
       </c>
-      <c r="C54">
-        <v>85066479</v>
+      <c r="C54" s="2">
+        <v>85340497</v>
       </c>
       <c r="D54">
         <v>6690045</v>
@@ -2599,7 +2603,7 @@
       <c r="H54" s="4">
         <v>850000</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="6">
         <v>510000000</v>
       </c>
       <c r="M54" s="4"/>
@@ -2611,8 +2615,8 @@
       <c r="B55">
         <v>177593900</v>
       </c>
-      <c r="C55">
-        <v>95825083</v>
+      <c r="C55" s="2">
+        <v>96858743</v>
       </c>
       <c r="D55">
         <v>9660510</v>
@@ -2629,7 +2633,7 @@
       <c r="H55" s="4">
         <v>950000</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="6">
         <v>570000000</v>
       </c>
       <c r="M55" s="4"/>
@@ -2641,8 +2645,8 @@
       <c r="B56">
         <v>178806902</v>
       </c>
-      <c r="C56">
-        <v>56935390</v>
+      <c r="C56" s="2">
+        <v>56940695</v>
       </c>
       <c r="D56">
         <v>6123535</v>
@@ -2659,7 +2663,7 @@
       <c r="H56" s="4">
         <v>550000</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="6">
         <v>420000000</v>
       </c>
       <c r="M56" s="4"/>
@@ -2671,8 +2675,8 @@
       <c r="B57">
         <v>140663165</v>
       </c>
-      <c r="C57">
-        <v>74975599</v>
+      <c r="C57" s="2">
+        <v>75256842</v>
       </c>
       <c r="D57">
         <v>10972979</v>
@@ -2689,7 +2693,7 @@
       <c r="H57" s="4">
         <v>750000</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="6">
         <v>562500000</v>
       </c>
       <c r="M57" s="4"/>
@@ -2701,8 +2705,8 @@
       <c r="B58">
         <v>174370367</v>
       </c>
-      <c r="C58">
-        <v>76569334</v>
+      <c r="C58" s="2">
+        <v>76136714</v>
       </c>
       <c r="D58">
         <v>13308322</v>
@@ -2719,7 +2723,7 @@
       <c r="H58" s="4">
         <v>750000</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="6">
         <v>450000000</v>
       </c>
       <c r="M58" s="4"/>
@@ -2731,8 +2735,8 @@
       <c r="B59">
         <v>123461709</v>
       </c>
-      <c r="C59">
-        <v>78418247</v>
+      <c r="C59" s="2">
+        <v>75299557</v>
       </c>
       <c r="D59">
         <v>21233628</v>
@@ -2749,7 +2753,7 @@
       <c r="H59" s="4">
         <v>750000</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="6">
         <v>562500000</v>
       </c>
       <c r="M59" s="4"/>
@@ -2761,8 +2765,8 @@
       <c r="B60">
         <v>174585155</v>
       </c>
-      <c r="C60">
-        <v>72641130</v>
+      <c r="C60" s="2">
+        <v>71214845</v>
       </c>
       <c r="D60">
         <v>7249546</v>
@@ -2779,7 +2783,7 @@
       <c r="H60" s="4">
         <v>700000</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="6">
         <v>420000000</v>
       </c>
       <c r="M60" s="4"/>
@@ -2791,8 +2795,8 @@
       <c r="B61">
         <v>177454336</v>
       </c>
-      <c r="C61">
-        <v>81001044</v>
+      <c r="C61" s="2">
+        <v>80625753</v>
       </c>
       <c r="D61">
         <v>8658984</v>
@@ -2809,7 +2813,7 @@
       <c r="H61" s="4">
         <v>800000</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="6">
         <v>480000000</v>
       </c>
       <c r="M61" s="4"/>
@@ -2821,7 +2825,7 @@
       <c r="B62">
         <v>163292091</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>76137396</v>
       </c>
       <c r="D62">
@@ -2839,7 +2843,7 @@
       <c r="H62" s="4">
         <v>750000</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="6">
         <v>562500000</v>
       </c>
       <c r="M62" s="4"/>
@@ -2851,8 +2855,8 @@
       <c r="B63">
         <v>70664943</v>
       </c>
-      <c r="C63">
-        <v>81259789</v>
+      <c r="C63" s="2">
+        <v>81030709</v>
       </c>
       <c r="D63">
         <v>22354163</v>
@@ -2869,7 +2873,7 @@
       <c r="H63" s="4">
         <v>800000</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="6">
         <v>600000000</v>
       </c>
       <c r="M63" s="4"/>
@@ -2881,8 +2885,8 @@
       <c r="B64">
         <v>187283502</v>
       </c>
-      <c r="C64">
-        <v>89626541</v>
+      <c r="C64" s="2">
+        <v>89325965</v>
       </c>
       <c r="D64">
         <v>7459748</v>
@@ -2899,7 +2903,7 @@
       <c r="H64" s="4">
         <v>850000</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="6">
         <v>510000000</v>
       </c>
       <c r="M64" s="4"/>
@@ -2911,8 +2915,8 @@
       <c r="B65">
         <v>187196101</v>
       </c>
-      <c r="C65">
-        <v>74149160</v>
+      <c r="C65" s="2">
+        <v>70120721</v>
       </c>
       <c r="D65">
         <v>4151825</v>
@@ -2929,7 +2933,7 @@
       <c r="H65" s="4">
         <v>700000</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="6">
         <v>420000000</v>
       </c>
       <c r="M65" s="4"/>
@@ -2941,8 +2945,8 @@
       <c r="B66">
         <v>187152965</v>
       </c>
-      <c r="C66">
-        <v>82819056</v>
+      <c r="C66" s="2">
+        <v>82402146</v>
       </c>
       <c r="D66">
         <v>3759816</v>
@@ -2959,7 +2963,7 @@
       <c r="H66" s="4">
         <v>800000</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="6">
         <v>480000000</v>
       </c>
       <c r="M66" s="4"/>
@@ -2971,8 +2975,8 @@
       <c r="B67">
         <v>177708673</v>
       </c>
-      <c r="C67">
-        <v>94523801</v>
+      <c r="C67" s="2">
+        <v>67911178</v>
       </c>
       <c r="D67">
         <v>8969147</v>
@@ -2989,7 +2993,7 @@
       <c r="H67" s="4">
         <v>650000</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="6">
         <v>390000000</v>
       </c>
       <c r="M67" s="4"/>
@@ -3001,8 +3005,8 @@
       <c r="B68">
         <v>22535429</v>
       </c>
-      <c r="C68">
-        <v>71811037</v>
+      <c r="C68" s="2">
+        <v>72209247</v>
       </c>
       <c r="D68">
         <v>18840498</v>
@@ -3019,7 +3023,7 @@
       <c r="H68" s="4">
         <v>700000</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="6">
         <v>525000000</v>
       </c>
       <c r="M68" s="4"/>
@@ -3031,8 +3035,8 @@
       <c r="B69">
         <v>187152986</v>
       </c>
-      <c r="C69">
-        <v>83520881</v>
+      <c r="C69" s="2">
+        <v>83127273</v>
       </c>
       <c r="D69">
         <v>3432537</v>
@@ -3049,7 +3053,7 @@
       <c r="H69" s="4">
         <v>800000</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="6">
         <v>480000000</v>
       </c>
       <c r="M69" s="4"/>
@@ -3061,8 +3065,8 @@
       <c r="B70">
         <v>187775892</v>
       </c>
-      <c r="C70">
-        <v>66814350</v>
+      <c r="C70" s="2">
+        <v>64966020</v>
       </c>
       <c r="D70">
         <v>3022753</v>
@@ -3079,7 +3083,7 @@
       <c r="H70" s="4">
         <v>600000</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="6">
         <v>450000000</v>
       </c>
       <c r="M70" s="4"/>
@@ -3091,8 +3095,8 @@
       <c r="B71">
         <v>187800242</v>
       </c>
-      <c r="C71">
-        <v>67303904</v>
+      <c r="C71" s="2">
+        <v>63185654</v>
       </c>
       <c r="D71">
         <v>4602268</v>
@@ -3109,7 +3113,7 @@
       <c r="H71" s="4">
         <v>600000</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="6">
         <v>450000000</v>
       </c>
       <c r="M71" s="4"/>
@@ -3121,8 +3125,8 @@
       <c r="B72">
         <v>187196169</v>
       </c>
-      <c r="C72">
-        <v>72092515</v>
+      <c r="C72" s="2">
+        <v>72559031</v>
       </c>
       <c r="D72">
         <v>4221323</v>
@@ -3139,7 +3143,7 @@
       <c r="H72" s="4">
         <v>700000</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="6">
         <v>420000000</v>
       </c>
       <c r="M72" s="4"/>
@@ -3151,8 +3155,8 @@
       <c r="B73">
         <v>177976291</v>
       </c>
-      <c r="C73">
-        <v>64496148</v>
+      <c r="C73" s="2">
+        <v>64367066</v>
       </c>
       <c r="D73">
         <v>4234251</v>
@@ -3169,7 +3173,7 @@
       <c r="H73" s="4">
         <v>600000</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="6">
         <v>450000000</v>
       </c>
       <c r="M73" s="4"/>
@@ -3181,8 +3185,8 @@
       <c r="B74">
         <v>185866462</v>
       </c>
-      <c r="C74">
-        <v>57321533</v>
+      <c r="C74" s="2">
+        <v>56273946</v>
       </c>
       <c r="D74">
         <v>4658566</v>
@@ -3199,7 +3203,7 @@
       <c r="H74" s="4">
         <v>550000</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="6">
         <v>420000000</v>
       </c>
       <c r="M74" s="4"/>
@@ -3211,8 +3215,8 @@
       <c r="B75">
         <v>178000344</v>
       </c>
-      <c r="C75">
-        <v>76206063</v>
+      <c r="C75" s="2">
+        <v>74983237</v>
       </c>
       <c r="D75">
         <v>6313204</v>
@@ -3229,7 +3233,7 @@
       <c r="H75" s="4">
         <v>700000</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="6">
         <v>420000000</v>
       </c>
       <c r="M75" s="4"/>
@@ -3241,8 +3245,8 @@
       <c r="B76">
         <v>176039213</v>
       </c>
-      <c r="C76">
-        <v>63855092</v>
+      <c r="C76" s="2">
+        <v>63775092</v>
       </c>
       <c r="D76">
         <v>4581386</v>
@@ -3259,7 +3263,7 @@
       <c r="H76" s="4">
         <v>600000</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="6">
         <v>450000000</v>
       </c>
       <c r="M76" s="4"/>
@@ -3271,8 +3275,8 @@
       <c r="B77">
         <v>178194046</v>
       </c>
-      <c r="C77">
-        <v>74884624</v>
+      <c r="C77" s="2">
+        <v>74713554</v>
       </c>
       <c r="D77">
         <v>6287599</v>
@@ -3289,7 +3293,7 @@
       <c r="H77" s="4">
         <v>700000</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="6">
         <v>420000000</v>
       </c>
       <c r="M77" s="4"/>
@@ -3301,7 +3305,7 @@
       <c r="B78">
         <v>180603336</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <v>78427724</v>
       </c>
       <c r="D78">
@@ -3319,7 +3323,7 @@
       <c r="H78" s="4">
         <v>750000</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="6">
         <v>450000000</v>
       </c>
       <c r="M78" s="4"/>
@@ -3331,8 +3335,8 @@
       <c r="B79">
         <v>186927791</v>
       </c>
-      <c r="C79">
-        <v>60443816</v>
+      <c r="C79" s="2">
+        <v>60037928</v>
       </c>
       <c r="D79">
         <v>3303229</v>
@@ -3349,7 +3353,7 @@
       <c r="H79" s="4">
         <v>600000</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="6">
         <v>450000000</v>
       </c>
       <c r="M79" s="4"/>
@@ -3361,8 +3365,8 @@
       <c r="B80">
         <v>185174938</v>
       </c>
-      <c r="C80">
-        <v>63086009</v>
+      <c r="C80" s="2">
+        <v>62799909</v>
       </c>
       <c r="D80">
         <v>4506664</v>
@@ -3379,7 +3383,7 @@
       <c r="H80" s="4">
         <v>600000</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="6">
         <v>450000000</v>
       </c>
       <c r="M80" s="4"/>
@@ -3391,8 +3395,8 @@
       <c r="B81">
         <v>51787215</v>
       </c>
-      <c r="C81">
-        <v>79062498</v>
+      <c r="C81" s="2">
+        <v>77103090</v>
       </c>
       <c r="D81">
         <v>20552858</v>
@@ -3409,7 +3413,7 @@
       <c r="H81" s="4">
         <v>750000</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="6">
         <v>562500000</v>
       </c>
       <c r="M81" s="4"/>
@@ -3421,8 +3425,8 @@
       <c r="B82">
         <v>184237961</v>
       </c>
-      <c r="C82">
-        <v>89535761</v>
+      <c r="C82" s="2">
+        <v>88860711</v>
       </c>
       <c r="D82">
         <v>9930774</v>
@@ -3439,7 +3443,7 @@
       <c r="H82" s="4">
         <v>850000</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="6">
         <v>510000000</v>
       </c>
       <c r="M82" s="4"/>
@@ -3451,8 +3455,8 @@
       <c r="B83">
         <v>176576846</v>
       </c>
-      <c r="C83">
-        <v>82444686</v>
+      <c r="C83" s="2">
+        <v>82337406</v>
       </c>
       <c r="D83">
         <v>7166182</v>
@@ -3469,7 +3473,7 @@
       <c r="H83" s="4">
         <v>800000</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="6">
         <v>480000000</v>
       </c>
       <c r="M83" s="4"/>
@@ -3481,8 +3485,8 @@
       <c r="B84">
         <v>170511327</v>
       </c>
-      <c r="C84">
-        <v>72309054</v>
+      <c r="C84" s="2">
+        <v>72098236</v>
       </c>
       <c r="D84">
         <v>4703005</v>
@@ -3499,7 +3503,7 @@
       <c r="H84" s="4">
         <v>700000</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="6">
         <v>420000000</v>
       </c>
       <c r="M84" s="4"/>
@@ -3511,8 +3515,8 @@
       <c r="B85">
         <v>174094283</v>
       </c>
-      <c r="C85">
-        <v>50739858</v>
+      <c r="C85" s="2">
+        <v>50556308</v>
       </c>
       <c r="D85">
         <v>8437498</v>
@@ -3529,7 +3533,7 @@
       <c r="H85" s="4">
         <v>500000</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="6">
         <v>300000000</v>
       </c>
       <c r="M85" s="4"/>
@@ -3541,8 +3545,8 @@
       <c r="B86">
         <v>187799168</v>
       </c>
-      <c r="C86">
-        <v>50550556</v>
+      <c r="C86" s="2">
+        <v>50442556</v>
       </c>
       <c r="D86">
         <v>2701720</v>
@@ -3559,7 +3563,7 @@
       <c r="H86" s="4">
         <v>500000</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="6">
         <v>300000000</v>
       </c>
       <c r="M86" s="4"/>
@@ -3571,8 +3575,8 @@
       <c r="B87">
         <v>187737008</v>
       </c>
-      <c r="C87">
-        <v>57785080</v>
+      <c r="C87" s="2">
+        <v>52816378</v>
       </c>
       <c r="D87">
         <v>2189390</v>
@@ -3589,7 +3593,7 @@
       <c r="H87" s="4">
         <v>500000</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="6">
         <v>300000000</v>
       </c>
       <c r="M87" s="4"/>
@@ -3601,8 +3605,8 @@
       <c r="B88">
         <v>188436437</v>
       </c>
-      <c r="C88">
-        <v>60271996</v>
+      <c r="C88" s="2">
+        <v>58910452</v>
       </c>
       <c r="D88">
         <v>3830444</v>
@@ -3619,7 +3623,7 @@
       <c r="H88" s="4">
         <v>550000</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="6">
         <v>420000000</v>
       </c>
       <c r="M88" s="4"/>
@@ -3631,8 +3635,8 @@
       <c r="B89">
         <v>187860212</v>
       </c>
-      <c r="C89">
-        <v>46405615</v>
+      <c r="C89" s="2">
+        <v>46162565</v>
       </c>
       <c r="D89">
         <v>2006741</v>
@@ -3649,7 +3653,7 @@
       <c r="H89" s="4">
         <v>450000</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="6">
         <v>270000000</v>
       </c>
       <c r="M89" s="4"/>
@@ -3661,8 +3665,8 @@
       <c r="B90">
         <v>187197045</v>
       </c>
-      <c r="C90">
-        <v>44437373</v>
+      <c r="C90" s="2">
+        <v>44398873</v>
       </c>
       <c r="D90">
         <v>4260841</v>
@@ -3679,7 +3683,7 @@
       <c r="H90" s="4">
         <v>400000</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="6">
         <v>240000000</v>
       </c>
       <c r="M90" s="4"/>
@@ -3691,8 +3695,8 @@
       <c r="B91">
         <v>188472124</v>
       </c>
-      <c r="C91">
-        <v>56298903</v>
+      <c r="C91" s="2">
+        <v>56152011</v>
       </c>
       <c r="D91">
         <v>2264596</v>
@@ -3709,10 +3713,17 @@
       <c r="H91" s="4">
         <v>550000</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I91" s="6">
         <v>420000000</v>
       </c>
       <c r="M91" s="4"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3736,22 +3747,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
